--- a/Dépendances.xlsx
+++ b/Dépendances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gdefr\Documents\2.Travail\INSA\4A\S7\BE Périphériques\BE_Periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF377884-D813-481A-A14E-FBD960BFFE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BBF9E-8376-462A-A91F-6BFA4B8C8C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dépendances HW" sheetId="1" r:id="rId1"/>
@@ -215,13 +215,13 @@
     <t>Actionneur</t>
   </si>
   <si>
-    <t>Sorties</t>
-  </si>
-  <si>
     <t>Pérpih.</t>
   </si>
   <si>
     <t>Pin</t>
+  </si>
+  <si>
+    <t>Entrées/Sorties</t>
   </si>
 </sst>
 </file>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,13 +560,13 @@
         <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -795,17 +795,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E16">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -819,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E5AC77-F771-4A1D-B752-DF5B8CA98077}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/Dépendances.xlsx
+++ b/Dépendances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gdefr\Documents\2.Travail\INSA\4A\S7\BE Périphériques\BE_Periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BBF9E-8376-462A-A91F-6BFA4B8C8C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98643840-17DA-4121-B27E-F231137BEC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dépendances HW" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>I2C2_SDA</t>
   </si>
@@ -116,9 +116,6 @@
     <t>direction.h</t>
   </si>
   <si>
-    <t>TransmissionInfo.h</t>
-  </si>
-  <si>
     <t>chavirement.h</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>SPI1_NSS</t>
   </si>
   <si>
-    <t>TransmissionINfo.h</t>
-  </si>
-  <si>
     <t>I2C2</t>
   </si>
   <si>
@@ -222,6 +216,21 @@
   </si>
   <si>
     <t>Entrées/Sorties</t>
+  </si>
+  <si>
+    <t>MyTransmission.h</t>
+  </si>
+  <si>
+    <t>MyADC.h</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>TIM3_CH3</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -282,11 +297,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,6 +358,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,30 +643,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
@@ -587,12 +676,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -602,10 +691,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -615,27 +704,27 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>48</v>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -645,9 +734,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -656,12 +745,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -671,27 +760,27 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -701,36 +790,36 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -740,40 +829,40 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
@@ -783,29 +872,46 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E16">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -817,10 +923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E5AC77-F771-4A1D-B752-DF5B8CA98077}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,10 +935,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -840,8 +946,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -849,54 +955,87 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A8"/>
+  <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A1:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dépendances.xlsx
+++ b/Dépendances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gdefr\Documents\2.Travail\INSA\4A\S7\BE Périphériques\BE_Periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98643840-17DA-4121-B27E-F231137BEC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01458212-C8F6-49F6-A4DC-ACBA42474023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="7490" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dépendances HW" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>I2C2_SDA</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>TIM3_CH3</t>
+  </si>
+  <si>
+    <t>adxl.h</t>
+  </si>
+  <si>
+    <t>MySPI.h</t>
   </si>
 </sst>
 </file>
@@ -274,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -341,16 +347,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,15 +392,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -384,10 +406,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,36 +676,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -671,13 +717,13 @@
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -686,67 +732,67 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -755,28 +801,28 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -785,79 +831,79 @@
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
@@ -867,12 +913,12 @@
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,36 +928,36 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="10" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E16">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -923,119 +969,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E5AC77-F771-4A1D-B752-DF5B8CA98077}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="17.54296875" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="11"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dépendances.xlsx
+++ b/Dépendances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gdefr\Documents\2.Travail\INSA\4A\S7\BE Périphériques\BE_Periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01458212-C8F6-49F6-A4DC-ACBA42474023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2FC06E-5BFE-465A-B27C-E08B4CC18FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="7490" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7570" yWindow="3600" windowWidth="14400" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dépendances HW" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>I2C2_SDA</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>MySPI.h</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>SPI1_CS</t>
+  </si>
+  <si>
+    <t>SPI_NSS</t>
   </si>
 </sst>
 </file>
@@ -377,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,23 +421,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,20 +686,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
@@ -704,8 +716,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -721,9 +733,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -736,9 +748,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
@@ -749,9 +761,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
@@ -762,14 +774,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -779,10 +791,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -790,9 +802,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -805,9 +817,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
@@ -818,11 +830,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -835,9 +847,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
@@ -848,118 +860,131 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="9" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E16">
+  <conditionalFormatting sqref="E2:E17">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -975,13 +1000,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="17.5703125" customWidth="1"/>
+    <col min="2" max="3" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -991,47 +1016,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
       <c r="B7" s="7" t="s">
         <v>70</v>
       </c>
@@ -1039,54 +1064,54 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="15"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
       <c r="B14" s="8" t="s">
         <v>27</v>
       </c>

--- a/Dépendances.xlsx
+++ b/Dépendances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gdefr\Documents\2.Travail\INSA\4A\S7\BE Périphériques\BE_Periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98643840-17DA-4121-B27E-F231137BEC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2FC06E-5BFE-465A-B27C-E08B4CC18FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7570" yWindow="3600" windowWidth="14400" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dépendances HW" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>I2C2_SDA</t>
   </si>
@@ -231,6 +231,21 @@
   </si>
   <si>
     <t>TIM3_CH3</t>
+  </si>
+  <si>
+    <t>adxl.h</t>
+  </si>
+  <si>
+    <t>MySPI.h</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>SPI1_CS</t>
+  </si>
+  <si>
+    <t>SPI_NSS</t>
   </si>
 </sst>
 </file>
@@ -274,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -341,16 +356,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,15 +401,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -384,10 +415,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,38 +686,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -671,13 +729,13 @@
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -686,67 +744,67 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -755,28 +813,28 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -785,117 +843,130 @@
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E16" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E19" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -903,17 +974,17 @@
   <mergeCells count="11">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E16">
+  <conditionalFormatting sqref="E2:E17">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -923,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E5AC77-F771-4A1D-B752-DF5B8CA98077}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -935,10 +1006,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -946,8 +1017,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -955,22 +1026,22 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -978,64 +1049,83 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dépendances.xlsx
+++ b/Dépendances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gdefr\Documents\2.Travail\INSA\4A\S7\BE Périphériques\BE_Periph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2FC06E-5BFE-465A-B27C-E08B4CC18FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE7C9B1-5BD2-4602-9E9C-6FA68C421487}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7570" yWindow="3600" windowWidth="14400" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dépendances HW" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>I2C2_SDA</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Xbee</t>
   </si>
   <si>
-    <t>USART1_RK</t>
-  </si>
-  <si>
     <t>PA10</t>
   </si>
   <si>
@@ -246,13 +243,31 @@
   </si>
   <si>
     <t>SPI_NSS</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>AltOut_Ppull</t>
+  </si>
+  <si>
+    <t>In_Floating</t>
+  </si>
+  <si>
+    <t>In_PullUp</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>Out_Ppull</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +279,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -382,11 +404,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,6 +460,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,6 +482,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,103 +731,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="F1" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="F5" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>47</v>
+      <c r="C6" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -790,124 +851,151 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>0</v>
@@ -915,74 +1003,85 @@
       <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="F15" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="F16" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
+      <c r="F17" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" s="10" t="s">
-        <v>67</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E17">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -1000,123 +1099,123 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="17.54296875" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
       <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
